--- a/Team-Data/2012-13/4-12-2012-13.xlsx
+++ b/Team-Data/2012-13/4-12-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" t="n">
         <v>36</v>
       </c>
       <c r="G2" t="n">
-        <v>0.55</v>
+        <v>0.544</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
       </c>
       <c r="I2" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J2" t="n">
         <v>80.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L2" t="n">
         <v>8.699999999999999</v>
@@ -696,25 +763,25 @@
         <v>23.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O2" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="P2" t="n">
         <v>19.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.712</v>
+        <v>0.713</v>
       </c>
       <c r="R2" t="n">
         <v>9.1</v>
       </c>
       <c r="S2" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T2" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="U2" t="n">
         <v>24.6</v>
@@ -723,7 +790,7 @@
         <v>14.9</v>
       </c>
       <c r="W2" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
         <v>4.6</v>
@@ -732,28 +799,28 @@
         <v>4.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="AA2" t="n">
         <v>18.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
         <v>10</v>
@@ -762,13 +829,13 @@
         <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
         <v>6</v>
       </c>
       <c r="AL2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM2" t="n">
         <v>5</v>
@@ -789,7 +856,7 @@
         <v>27</v>
       </c>
       <c r="AS2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT2" t="n">
         <v>25</v>
@@ -804,7 +871,7 @@
         <v>14</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY2" t="n">
         <v>6</v>
@@ -819,7 +886,7 @@
         <v>14</v>
       </c>
       <c r="BC2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-12-2012-13</t>
+          <t>2013-04-12</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" t="n">
         <v>40</v>
       </c>
       <c r="F3" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" t="n">
-        <v>0.506</v>
+        <v>0.513</v>
       </c>
       <c r="H3" t="n">
         <v>49</v>
@@ -866,7 +933,7 @@
         <v>36.9</v>
       </c>
       <c r="J3" t="n">
-        <v>79.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K3" t="n">
         <v>0.463</v>
@@ -875,31 +942,31 @@
         <v>6.1</v>
       </c>
       <c r="M3" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.354</v>
+        <v>0.356</v>
       </c>
       <c r="O3" t="n">
         <v>16.4</v>
       </c>
       <c r="P3" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.777</v>
+        <v>0.776</v>
       </c>
       <c r="R3" t="n">
         <v>8.1</v>
       </c>
       <c r="S3" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T3" t="n">
         <v>39.4</v>
       </c>
       <c r="U3" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V3" t="n">
         <v>14.6</v>
@@ -908,7 +975,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
@@ -917,22 +984,22 @@
         <v>21.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
         <v>16</v>
       </c>
       <c r="AF3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
         <v>16</v>
@@ -956,16 +1023,16 @@
         <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AO3" t="n">
         <v>19</v>
       </c>
       <c r="AP3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
@@ -977,7 +1044,7 @@
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
         <v>14</v>
@@ -986,13 +1053,13 @@
         <v>11</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
         <v>10</v>
       </c>
       <c r="AZ3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA3" t="n">
         <v>18</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-12-2012-13</t>
+          <t>2013-04-12</t>
         </is>
       </c>
     </row>
@@ -1030,22 +1097,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" t="n">
         <v>32</v>
       </c>
       <c r="G4" t="n">
-        <v>0.595</v>
+        <v>0.59</v>
       </c>
       <c r="H4" t="n">
         <v>48.4</v>
       </c>
       <c r="I4" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J4" t="n">
         <v>79.59999999999999</v>
@@ -1054,13 +1121,13 @@
         <v>0.449</v>
       </c>
       <c r="L4" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M4" t="n">
         <v>21.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.358</v>
+        <v>0.356</v>
       </c>
       <c r="O4" t="n">
         <v>17.6</v>
@@ -1069,13 +1136,13 @@
         <v>23.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.736</v>
+        <v>0.735</v>
       </c>
       <c r="R4" t="n">
         <v>12.7</v>
       </c>
       <c r="S4" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T4" t="n">
         <v>42.9</v>
@@ -1087,7 +1154,7 @@
         <v>14.7</v>
       </c>
       <c r="W4" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X4" t="n">
         <v>4.8</v>
@@ -1096,19 +1163,19 @@
         <v>4.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="AA4" t="n">
         <v>21.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1129,16 +1196,16 @@
         <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM4" t="n">
         <v>8</v>
       </c>
       <c r="AN4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO4" t="n">
         <v>9</v>
@@ -1153,7 +1220,7 @@
         <v>5</v>
       </c>
       <c r="AS4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT4" t="n">
         <v>10</v>
@@ -1165,7 +1232,7 @@
         <v>17</v>
       </c>
       <c r="AW4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX4" t="n">
         <v>17</v>
@@ -1180,7 +1247,7 @@
         <v>6</v>
       </c>
       <c r="BB4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-12-2012-13</t>
+          <t>2013-04-12</t>
         </is>
       </c>
     </row>
@@ -1212,22 +1279,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" t="n">
         <v>18</v>
       </c>
       <c r="F5" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" t="n">
-        <v>0.228</v>
+        <v>0.231</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
       </c>
       <c r="I5" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="J5" t="n">
         <v>81.3</v>
@@ -1239,37 +1306,37 @@
         <v>5.7</v>
       </c>
       <c r="M5" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="N5" t="n">
-        <v>0.333</v>
+        <v>0.332</v>
       </c>
       <c r="O5" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P5" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="Q5" t="n">
         <v>0.749</v>
       </c>
       <c r="R5" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S5" t="n">
         <v>28.9</v>
       </c>
       <c r="T5" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="U5" t="n">
         <v>19</v>
       </c>
       <c r="V5" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="W5" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X5" t="n">
         <v>5.9</v>
@@ -1287,10 +1354,10 @@
         <v>93.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-9.9</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1317,7 +1384,7 @@
         <v>27</v>
       </c>
       <c r="AM5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN5" t="n">
         <v>27</v>
@@ -1344,10 +1411,10 @@
         <v>30</v>
       </c>
       <c r="AV5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
@@ -1362,7 +1429,7 @@
         <v>5</v>
       </c>
       <c r="BB5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-12-2012-13</t>
+          <t>2013-04-12</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" t="n">
         <v>43</v>
       </c>
       <c r="F6" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" t="n">
-        <v>0.544</v>
+        <v>0.551</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
@@ -1412,7 +1479,7 @@
         <v>35.7</v>
       </c>
       <c r="J6" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K6" t="n">
         <v>0.436</v>
@@ -1424,13 +1491,13 @@
         <v>15.2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.348</v>
+        <v>0.346</v>
       </c>
       <c r="O6" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P6" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="Q6" t="n">
         <v>0.774</v>
@@ -1439,16 +1506,16 @@
         <v>12.6</v>
       </c>
       <c r="S6" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T6" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U6" t="n">
         <v>22.9</v>
       </c>
       <c r="V6" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W6" t="n">
         <v>7.2</v>
@@ -1460,34 +1527,34 @@
         <v>5.8</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB6" t="n">
         <v>93.09999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
         <v>12</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
         <v>12</v>
       </c>
       <c r="AI6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ6" t="n">
         <v>13</v>
@@ -1502,13 +1569,13 @@
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ6" t="n">
         <v>10</v>
@@ -1520,7 +1587,7 @@
         <v>14</v>
       </c>
       <c r="AT6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU6" t="n">
         <v>7</v>
@@ -1529,22 +1596,22 @@
         <v>10</v>
       </c>
       <c r="AW6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY6" t="n">
         <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA6" t="n">
         <v>17</v>
       </c>
       <c r="BB6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC6" t="n">
         <v>14</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-12-2012-13</t>
+          <t>2013-04-12</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" t="n">
         <v>24</v>
       </c>
       <c r="F7" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" t="n">
-        <v>0.304</v>
+        <v>0.308</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
@@ -1603,16 +1670,16 @@
         <v>6.7</v>
       </c>
       <c r="M7" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N7" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O7" t="n">
         <v>17</v>
       </c>
       <c r="P7" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q7" t="n">
         <v>0.759</v>
@@ -1627,7 +1694,7 @@
         <v>41</v>
       </c>
       <c r="U7" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V7" t="n">
         <v>14.1</v>
@@ -1648,13 +1715,13 @@
         <v>19.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.6</v>
+        <v>-4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>27</v>
@@ -1669,7 +1736,7 @@
         <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="n">
         <v>4</v>
@@ -1678,13 +1745,13 @@
         <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM7" t="n">
         <v>16</v>
       </c>
       <c r="AN7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO7" t="n">
         <v>13</v>
@@ -1702,13 +1769,13 @@
         <v>30</v>
       </c>
       <c r="AT7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU7" t="n">
         <v>26</v>
       </c>
       <c r="AV7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW7" t="n">
         <v>16</v>
@@ -1717,16 +1784,16 @@
         <v>29</v>
       </c>
       <c r="AY7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA7" t="n">
         <v>16</v>
       </c>
       <c r="BB7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC7" t="n">
         <v>26</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-12-2012-13</t>
+          <t>2013-04-12</t>
         </is>
       </c>
     </row>
@@ -1758,37 +1825,37 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" t="n">
         <v>40</v>
       </c>
       <c r="G8" t="n">
-        <v>0.494</v>
+        <v>0.487</v>
       </c>
       <c r="H8" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="I8" t="n">
         <v>38.7</v>
       </c>
       <c r="J8" t="n">
-        <v>84.2</v>
+        <v>84</v>
       </c>
       <c r="K8" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L8" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M8" t="n">
         <v>19.9</v>
       </c>
       <c r="N8" t="n">
-        <v>0.37</v>
+        <v>0.369</v>
       </c>
       <c r="O8" t="n">
         <v>16.3</v>
@@ -1797,34 +1864,34 @@
         <v>20.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.791</v>
+        <v>0.794</v>
       </c>
       <c r="R8" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.1</v>
+        <v>41.9</v>
       </c>
       <c r="U8" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V8" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W8" t="n">
         <v>7.9</v>
       </c>
       <c r="X8" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y8" t="n">
         <v>4.2</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA8" t="n">
         <v>18.9</v>
@@ -1833,10 +1900,10 @@
         <v>101.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
@@ -1848,13 +1915,13 @@
         <v>17</v>
       </c>
       <c r="AH8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK8" t="n">
         <v>9</v>
@@ -1863,7 +1930,7 @@
         <v>13</v>
       </c>
       <c r="AM8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN8" t="n">
         <v>7</v>
@@ -1872,7 +1939,7 @@
         <v>20</v>
       </c>
       <c r="AP8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ8" t="n">
         <v>2</v>
@@ -1884,10 +1951,10 @@
         <v>6</v>
       </c>
       <c r="AT8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV8" t="n">
         <v>6</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-12-2012-13</t>
+          <t>2013-04-12</t>
         </is>
       </c>
     </row>
@@ -1940,43 +2007,43 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" t="n">
         <v>54</v>
       </c>
       <c r="F9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I9" t="n">
         <v>40.6</v>
       </c>
       <c r="J9" t="n">
-        <v>85.09999999999999</v>
+        <v>85</v>
       </c>
       <c r="K9" t="n">
-        <v>0.477</v>
+        <v>0.478</v>
       </c>
       <c r="L9" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M9" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="N9" t="n">
         <v>0.343</v>
       </c>
       <c r="O9" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P9" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="Q9" t="n">
         <v>0.697</v>
@@ -1991,13 +2058,13 @@
         <v>44.8</v>
       </c>
       <c r="U9" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="V9" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W9" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X9" t="n">
         <v>6.5</v>
@@ -2006,7 +2073,7 @@
         <v>6.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA9" t="n">
         <v>21.7</v>
@@ -2015,10 +2082,10 @@
         <v>105.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AD9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
         <v>4</v>
@@ -2063,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT9" t="n">
         <v>2</v>
@@ -2072,7 +2139,7 @@
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW9" t="n">
         <v>2</v>
@@ -2081,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ9" t="n">
         <v>20</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-12-2012-13</t>
+          <t>2013-04-12</t>
         </is>
       </c>
     </row>
@@ -2122,37 +2189,37 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" t="n">
         <v>52</v>
       </c>
       <c r="G10" t="n">
-        <v>0.35</v>
+        <v>0.342</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J10" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L10" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M10" t="n">
         <v>17.5</v>
       </c>
       <c r="N10" t="n">
-        <v>0.359</v>
+        <v>0.355</v>
       </c>
       <c r="O10" t="n">
         <v>15.8</v>
@@ -2161,7 +2228,7 @@
         <v>22.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.697</v>
+        <v>0.696</v>
       </c>
       <c r="R10" t="n">
         <v>12.1</v>
@@ -2170,16 +2237,16 @@
         <v>30</v>
       </c>
       <c r="T10" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U10" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V10" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W10" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X10" t="n">
         <v>4.9</v>
@@ -2194,16 +2261,16 @@
         <v>19.9</v>
       </c>
       <c r="AB10" t="n">
-        <v>94.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-4.1</v>
+        <v>-4.4</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF10" t="n">
         <v>25</v>
@@ -2212,49 +2279,49 @@
         <v>25</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AM10" t="n">
         <v>24</v>
       </c>
       <c r="AN10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AO10" t="n">
         <v>23</v>
       </c>
       <c r="AP10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
       </c>
       <c r="AR10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS10" t="n">
         <v>20</v>
       </c>
       <c r="AT10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU10" t="n">
         <v>22</v>
       </c>
       <c r="AV10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW10" t="n">
         <v>27</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-12-2012-13</t>
+          <t>2013-04-12</t>
         </is>
       </c>
     </row>
@@ -2304,25 +2371,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" t="n">
         <v>45</v>
       </c>
       <c r="F11" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>38.1</v>
+        <v>37.9</v>
       </c>
       <c r="J11" t="n">
-        <v>83.3</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K11" t="n">
         <v>0.457</v>
@@ -2331,34 +2398,34 @@
         <v>8</v>
       </c>
       <c r="M11" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="N11" t="n">
         <v>0.402</v>
       </c>
       <c r="O11" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P11" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q11" t="n">
         <v>0.79</v>
       </c>
       <c r="R11" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S11" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="T11" t="n">
         <v>44.8</v>
       </c>
       <c r="U11" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V11" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W11" t="n">
         <v>6.9</v>
@@ -2370,13 +2437,13 @@
         <v>4.9</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="AA11" t="n">
         <v>19.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>101</v>
+        <v>100.8</v>
       </c>
       <c r="AC11" t="n">
         <v>0.7</v>
@@ -2394,10 +2461,10 @@
         <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ11" t="n">
         <v>9</v>
@@ -2424,7 +2491,7 @@
         <v>4</v>
       </c>
       <c r="AR11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS11" t="n">
         <v>1</v>
@@ -2436,7 +2503,7 @@
         <v>14</v>
       </c>
       <c r="AV11" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AW11" t="n">
         <v>26</v>
@@ -2445,10 +2512,10 @@
         <v>26</v>
       </c>
       <c r="AY11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA11" t="n">
         <v>20</v>
@@ -2457,7 +2524,7 @@
         <v>9</v>
       </c>
       <c r="BC11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-12-2012-13</t>
+          <t>2013-04-12</t>
         </is>
       </c>
     </row>
@@ -2486,37 +2553,37 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" t="n">
         <v>44</v>
       </c>
       <c r="F12" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
       </c>
       <c r="I12" t="n">
-        <v>38</v>
+        <v>38.2</v>
       </c>
       <c r="J12" t="n">
-        <v>82.59999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="K12" t="n">
-        <v>0.46</v>
+        <v>0.462</v>
       </c>
       <c r="L12" t="n">
         <v>10.6</v>
       </c>
       <c r="M12" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.366</v>
+        <v>0.367</v>
       </c>
       <c r="O12" t="n">
         <v>19.3</v>
@@ -2525,25 +2592,25 @@
         <v>25.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="R12" t="n">
         <v>11.2</v>
       </c>
       <c r="S12" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T12" t="n">
-        <v>43.4</v>
+        <v>43.3</v>
       </c>
       <c r="U12" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="V12" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="W12" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X12" t="n">
         <v>4.2</v>
@@ -2552,19 +2619,19 @@
         <v>6</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>105.8</v>
+        <v>106.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
         <v>11</v>
@@ -2579,22 +2646,22 @@
         <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AJ12" t="n">
         <v>10</v>
       </c>
       <c r="AK12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL12" t="n">
         <v>2</v>
       </c>
       <c r="AM12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO12" t="n">
         <v>2</v>
@@ -2612,16 +2679,16 @@
         <v>8</v>
       </c>
       <c r="AT12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX12" t="n">
         <v>27</v>
@@ -2630,13 +2697,13 @@
         <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA12" t="n">
         <v>9</v>
       </c>
       <c r="BB12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-12-2012-13</t>
+          <t>2013-04-12</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" t="n">
         <v>49</v>
       </c>
       <c r="F13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" t="n">
-        <v>0.62</v>
+        <v>0.628</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="J13" t="n">
         <v>80.8</v>
       </c>
       <c r="K13" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L13" t="n">
         <v>6.8</v>
@@ -2698,34 +2765,34 @@
         <v>19.6</v>
       </c>
       <c r="N13" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="O13" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P13" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="R13" t="n">
         <v>12.9</v>
       </c>
       <c r="S13" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
       <c r="T13" t="n">
-        <v>45.9</v>
+        <v>46.1</v>
       </c>
       <c r="U13" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V13" t="n">
         <v>15</v>
       </c>
       <c r="W13" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X13" t="n">
         <v>6.4</v>
@@ -2740,13 +2807,13 @@
         <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.90000000000001</v>
+        <v>94.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>8</v>
@@ -2767,7 +2834,7 @@
         <v>24</v>
       </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL13" t="n">
         <v>16</v>
@@ -2779,7 +2846,7 @@
         <v>21</v>
       </c>
       <c r="AO13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP13" t="n">
         <v>8</v>
@@ -2791,7 +2858,7 @@
         <v>3</v>
       </c>
       <c r="AS13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -2800,7 +2867,7 @@
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW13" t="n">
         <v>23</v>
@@ -2818,7 +2885,7 @@
         <v>3</v>
       </c>
       <c r="BB13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC13" t="n">
         <v>6</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-12-2012-13</t>
+          <t>2013-04-12</t>
         </is>
       </c>
     </row>
@@ -2850,28 +2917,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" t="n">
         <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>0.671</v>
+        <v>0.667</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J14" t="n">
-        <v>80.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.478</v>
+        <v>0.479</v>
       </c>
       <c r="L14" t="n">
         <v>7.6</v>
@@ -2880,16 +2947,16 @@
         <v>21.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0.357</v>
+        <v>0.359</v>
       </c>
       <c r="O14" t="n">
         <v>16.5</v>
       </c>
       <c r="P14" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.711</v>
+        <v>0.712</v>
       </c>
       <c r="R14" t="n">
         <v>11.4</v>
@@ -2901,25 +2968,25 @@
         <v>41.4</v>
       </c>
       <c r="U14" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="V14" t="n">
         <v>14.7</v>
       </c>
       <c r="W14" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X14" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB14" t="n">
         <v>101.2</v>
@@ -2928,7 +2995,7 @@
         <v>6.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2952,13 +3019,13 @@
         <v>4</v>
       </c>
       <c r="AL14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM14" t="n">
         <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AO14" t="n">
         <v>16</v>
@@ -2970,7 +3037,7 @@
         <v>27</v>
       </c>
       <c r="AR14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS14" t="n">
         <v>21</v>
@@ -2982,7 +3049,7 @@
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -2994,10 +3061,10 @@
         <v>4</v>
       </c>
       <c r="AZ14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB14" t="n">
         <v>7</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-12-2012-13</t>
+          <t>2013-04-12</t>
         </is>
       </c>
     </row>
@@ -3032,25 +3099,25 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" t="n">
         <v>37</v>
       </c>
       <c r="G15" t="n">
-        <v>0.538</v>
+        <v>0.532</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J15" t="n">
-        <v>80.8</v>
+        <v>81</v>
       </c>
       <c r="K15" t="n">
         <v>0.46</v>
@@ -3059,28 +3126,28 @@
         <v>8.699999999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.356</v>
+        <v>0.354</v>
       </c>
       <c r="O15" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="P15" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S15" t="n">
         <v>33.1</v>
       </c>
       <c r="T15" t="n">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="U15" t="n">
         <v>22.2</v>
@@ -3101,10 +3168,10 @@
         <v>18</v>
       </c>
       <c r="AA15" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.4</v>
+        <v>102.2</v>
       </c>
       <c r="AC15" t="n">
         <v>1.1</v>
@@ -3113,7 +3180,7 @@
         <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF15" t="n">
         <v>14</v>
@@ -3125,22 +3192,22 @@
         <v>30</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AL15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM15" t="n">
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO15" t="n">
         <v>3</v>
@@ -3152,7 +3219,7 @@
         <v>30</v>
       </c>
       <c r="AR15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS15" t="n">
         <v>4</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-12-2012-13</t>
+          <t>2013-04-12</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" t="n">
         <v>25</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.679</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J16" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.444</v>
+        <v>0.446</v>
       </c>
       <c r="L16" t="n">
         <v>4.6</v>
@@ -3244,16 +3311,16 @@
         <v>13.4</v>
       </c>
       <c r="N16" t="n">
-        <v>0.344</v>
+        <v>0.345</v>
       </c>
       <c r="O16" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P16" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.775</v>
+        <v>0.776</v>
       </c>
       <c r="R16" t="n">
         <v>12.8</v>
@@ -3262,13 +3329,13 @@
         <v>29.6</v>
       </c>
       <c r="T16" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U16" t="n">
         <v>20.9</v>
       </c>
       <c r="V16" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W16" t="n">
         <v>8.6</v>
@@ -3286,28 +3353,28 @@
         <v>20</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.5</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC16" t="n">
         <v>4.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH16" t="n">
         <v>17</v>
       </c>
       <c r="AI16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ16" t="n">
         <v>18</v>
@@ -3325,13 +3392,13 @@
         <v>24</v>
       </c>
       <c r="AO16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR16" t="n">
         <v>4</v>
@@ -3346,7 +3413,7 @@
         <v>24</v>
       </c>
       <c r="AV16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW16" t="n">
         <v>4</v>
@@ -3358,10 +3425,10 @@
         <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB16" t="n">
         <v>26</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-12-2012-13</t>
+          <t>2013-04-12</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E17" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>0.797</v>
+        <v>0.795</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
@@ -3414,28 +3481,28 @@
         <v>38.4</v>
       </c>
       <c r="J17" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.495</v>
+        <v>0.494</v>
       </c>
       <c r="L17" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="M17" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.395</v>
+        <v>0.394</v>
       </c>
       <c r="O17" t="n">
         <v>17.3</v>
       </c>
       <c r="P17" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="R17" t="n">
         <v>8.300000000000001</v>
@@ -3459,22 +3526,22 @@
         <v>5.2</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="AC17" t="n">
         <v>7.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
@@ -3486,7 +3553,7 @@
         <v>1</v>
       </c>
       <c r="AH17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI17" t="n">
         <v>5</v>
@@ -3510,7 +3577,7 @@
         <v>12</v>
       </c>
       <c r="AP17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ17" t="n">
         <v>14</v>
@@ -3519,13 +3586,13 @@
         <v>28</v>
       </c>
       <c r="AS17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV17" t="n">
         <v>4</v>
@@ -3534,7 +3601,7 @@
         <v>3</v>
       </c>
       <c r="AX17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-12-2012-13</t>
+          <t>2013-04-12</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" t="n">
         <v>37</v>
       </c>
       <c r="F18" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" t="n">
-        <v>0.468</v>
+        <v>0.474</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
@@ -3596,25 +3663,25 @@
         <v>38.2</v>
       </c>
       <c r="J18" t="n">
-        <v>87.7</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="K18" t="n">
         <v>0.436</v>
       </c>
       <c r="L18" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M18" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="N18" t="n">
-        <v>0.361</v>
+        <v>0.358</v>
       </c>
       <c r="O18" t="n">
         <v>15.4</v>
       </c>
       <c r="P18" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="Q18" t="n">
         <v>0.738</v>
@@ -3623,7 +3690,7 @@
         <v>13</v>
       </c>
       <c r="S18" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T18" t="n">
         <v>43.9</v>
@@ -3632,10 +3699,10 @@
         <v>22.9</v>
       </c>
       <c r="V18" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W18" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X18" t="n">
         <v>6.8</v>
@@ -3647,16 +3714,16 @@
         <v>19</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB18" t="n">
         <v>98.90000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.5</v>
+        <v>-1.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
         <v>18</v>
@@ -3677,25 +3744,25 @@
         <v>1</v>
       </c>
       <c r="AK18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL18" t="n">
         <v>14</v>
       </c>
       <c r="AM18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP18" t="n">
         <v>23</v>
       </c>
       <c r="AQ18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR18" t="n">
         <v>2</v>
@@ -3713,13 +3780,13 @@
         <v>9</v>
       </c>
       <c r="AW18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX18" t="n">
         <v>2</v>
       </c>
       <c r="AY18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ18" t="n">
         <v>9</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-12-2012-13</t>
+          <t>2013-04-12</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" t="n">
         <v>29</v>
       </c>
       <c r="F19" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" t="n">
-        <v>0.367</v>
+        <v>0.372</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
@@ -3787,10 +3854,10 @@
         <v>5.4</v>
       </c>
       <c r="M19" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.304</v>
+        <v>0.303</v>
       </c>
       <c r="O19" t="n">
         <v>18.6</v>
@@ -3799,22 +3866,22 @@
         <v>25.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.74</v>
+        <v>0.738</v>
       </c>
       <c r="R19" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S19" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T19" t="n">
-        <v>42.1</v>
+        <v>42.3</v>
       </c>
       <c r="U19" t="n">
         <v>22.4</v>
       </c>
       <c r="V19" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W19" t="n">
         <v>8.4</v>
@@ -3832,13 +3899,13 @@
         <v>22.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.6</v>
+        <v>-2.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
         <v>22</v>
@@ -3877,16 +3944,16 @@
         <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU19" t="n">
         <v>15</v>
@@ -3895,16 +3962,16 @@
         <v>20</v>
       </c>
       <c r="AW19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX19" t="n">
         <v>18</v>
       </c>
       <c r="AY19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA19" t="n">
         <v>2</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-12-2012-13</t>
+          <t>2013-04-12</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" t="n">
         <v>27</v>
       </c>
       <c r="F20" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G20" t="n">
-        <v>0.338</v>
+        <v>0.342</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J20" t="n">
         <v>80.2</v>
       </c>
       <c r="K20" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L20" t="n">
         <v>6.5</v>
@@ -3972,25 +4039,25 @@
         <v>18</v>
       </c>
       <c r="N20" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O20" t="n">
         <v>15.4</v>
       </c>
       <c r="P20" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.776</v>
+        <v>0.781</v>
       </c>
       <c r="R20" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S20" t="n">
         <v>29.6</v>
       </c>
       <c r="T20" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U20" t="n">
         <v>21.1</v>
@@ -4002,16 +4069,16 @@
         <v>6.4</v>
       </c>
       <c r="X20" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y20" t="n">
         <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AB20" t="n">
         <v>94.2</v>
@@ -4023,16 +4090,16 @@
         <v>1</v>
       </c>
       <c r="AE20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4053,13 +4120,13 @@
         <v>12</v>
       </c>
       <c r="AO20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR20" t="n">
         <v>11</v>
@@ -4068,7 +4135,7 @@
         <v>26</v>
       </c>
       <c r="AT20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU20" t="n">
         <v>23</v>
@@ -4080,13 +4147,13 @@
         <v>30</v>
       </c>
       <c r="AX20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-12-2012-13</t>
+          <t>2013-04-12</t>
         </is>
       </c>
     </row>
@@ -4124,46 +4191,46 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" t="n">
         <v>27</v>
       </c>
       <c r="G21" t="n">
-        <v>0.658</v>
+        <v>0.654</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
       </c>
       <c r="I21" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J21" t="n">
         <v>81.5</v>
       </c>
       <c r="K21" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L21" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="M21" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="N21" t="n">
         <v>0.376</v>
       </c>
       <c r="O21" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P21" t="n">
         <v>21.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="R21" t="n">
         <v>10.9</v>
@@ -4193,7 +4260,7 @@
         <v>20.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB21" t="n">
         <v>100.2</v>
@@ -4202,7 +4269,7 @@
         <v>4.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
         <v>7</v>
@@ -4217,19 +4284,19 @@
         <v>26</v>
       </c>
       <c r="AI21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ21" t="n">
         <v>17</v>
       </c>
       <c r="AK21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
       </c>
       <c r="AM21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN21" t="n">
         <v>5</v>
@@ -4268,7 +4335,7 @@
         <v>3</v>
       </c>
       <c r="AZ21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA21" t="n">
         <v>19</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-12-2012-13</t>
+          <t>2013-04-12</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
       </c>
       <c r="G22" t="n">
-        <v>0.738</v>
+        <v>0.734</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4324,10 +4391,10 @@
         <v>38.1</v>
       </c>
       <c r="J22" t="n">
-        <v>79</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.482</v>
+        <v>0.481</v>
       </c>
       <c r="L22" t="n">
         <v>7.4</v>
@@ -4339,10 +4406,10 @@
         <v>0.382</v>
       </c>
       <c r="O22" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="P22" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="Q22" t="n">
         <v>0.829</v>
@@ -4357,7 +4424,7 @@
         <v>43.6</v>
       </c>
       <c r="U22" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V22" t="n">
         <v>15.4</v>
@@ -4375,13 +4442,13 @@
         <v>20.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB22" t="n">
-        <v>106</v>
+        <v>105.9</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -4399,7 +4466,7 @@
         <v>16</v>
       </c>
       <c r="AI22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ22" t="n">
         <v>29</v>
@@ -4435,7 +4502,7 @@
         <v>6</v>
       </c>
       <c r="AU22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV22" t="n">
         <v>28</v>
@@ -4453,10 +4520,10 @@
         <v>18</v>
       </c>
       <c r="BA22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-12-2012-13</t>
+          <t>2013-04-12</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-6.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4587,7 +4654,7 @@
         <v>3</v>
       </c>
       <c r="AK23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL23" t="n">
         <v>21</v>
@@ -4605,7 +4672,7 @@
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR23" t="n">
         <v>21</v>
@@ -4617,7 +4684,7 @@
         <v>11</v>
       </c>
       <c r="AU23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV23" t="n">
         <v>11</v>
@@ -4626,13 +4693,13 @@
         <v>29</v>
       </c>
       <c r="AX23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY23" t="n">
         <v>18</v>
       </c>
       <c r="AZ23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-12-2012-13</t>
+          <t>2013-04-12</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E24" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" t="n">
         <v>47</v>
       </c>
       <c r="G24" t="n">
-        <v>0.405</v>
+        <v>0.397</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
@@ -4688,7 +4755,7 @@
         <v>37.2</v>
       </c>
       <c r="J24" t="n">
-        <v>84</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K24" t="n">
         <v>0.443</v>
@@ -4700,34 +4767,34 @@
         <v>17.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O24" t="n">
         <v>12.3</v>
       </c>
       <c r="P24" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.728</v>
+        <v>0.727</v>
       </c>
       <c r="R24" t="n">
         <v>10.9</v>
       </c>
       <c r="S24" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T24" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U24" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V24" t="n">
         <v>13</v>
       </c>
       <c r="W24" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X24" t="n">
         <v>4.6</v>
@@ -4736,7 +4803,7 @@
         <v>4.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AA24" t="n">
         <v>16.3</v>
@@ -4745,10 +4812,10 @@
         <v>92.90000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.7</v>
+        <v>-3.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
@@ -4763,7 +4830,7 @@
         <v>24</v>
       </c>
       <c r="AI24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ24" t="n">
         <v>7</v>
@@ -4772,13 +4839,13 @@
         <v>22</v>
       </c>
       <c r="AL24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM24" t="n">
         <v>25</v>
       </c>
       <c r="AN24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4799,7 +4866,7 @@
         <v>19</v>
       </c>
       <c r="AU24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
@@ -4811,7 +4878,7 @@
         <v>20</v>
       </c>
       <c r="AY24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ24" t="n">
         <v>5</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-12-2012-13</t>
+          <t>2013-04-12</t>
         </is>
       </c>
     </row>
@@ -4930,25 +4997,25 @@
         <v>-6.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
         <v>27</v>
       </c>
       <c r="AF25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK25" t="n">
         <v>23</v>
@@ -4966,7 +5033,7 @@
         <v>27</v>
       </c>
       <c r="AP25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ25" t="n">
         <v>20</v>
@@ -5002,7 +5069,7 @@
         <v>28</v>
       </c>
       <c r="BB25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC25" t="n">
         <v>28</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-12-2012-13</t>
+          <t>2013-04-12</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" t="n">
         <v>33</v>
       </c>
       <c r="F26" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G26" t="n">
-        <v>0.418</v>
+        <v>0.423</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5052,7 +5119,7 @@
         <v>36.8</v>
       </c>
       <c r="J26" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K26" t="n">
         <v>0.449</v>
@@ -5064,7 +5131,7 @@
         <v>23.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.352</v>
+        <v>0.353</v>
       </c>
       <c r="O26" t="n">
         <v>16</v>
@@ -5073,7 +5140,7 @@
         <v>20.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.776</v>
+        <v>0.777</v>
       </c>
       <c r="R26" t="n">
         <v>10.8</v>
@@ -5091,13 +5158,13 @@
         <v>14.6</v>
       </c>
       <c r="W26" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X26" t="n">
         <v>4.4</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z26" t="n">
         <v>18.6</v>
@@ -5106,13 +5173,13 @@
         <v>18.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.8</v>
+        <v>-2.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -5130,10 +5197,10 @@
         <v>18</v>
       </c>
       <c r="AJ26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK26" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL26" t="n">
         <v>6</v>
@@ -5151,16 +5218,16 @@
         <v>24</v>
       </c>
       <c r="AQ26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU26" t="n">
         <v>18</v>
@@ -5172,7 +5239,7 @@
         <v>28</v>
       </c>
       <c r="AX26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY26" t="n">
         <v>7</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-12-2012-13</t>
+          <t>2013-04-12</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E27" t="n">
         <v>28</v>
       </c>
       <c r="F27" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" t="n">
-        <v>0.354</v>
+        <v>0.359</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5234,7 +5301,7 @@
         <v>37.6</v>
       </c>
       <c r="J27" t="n">
-        <v>83.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K27" t="n">
         <v>0.448</v>
@@ -5246,46 +5313,46 @@
         <v>20.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.366</v>
+        <v>0.363</v>
       </c>
       <c r="O27" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P27" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q27" t="n">
         <v>0.771</v>
       </c>
       <c r="R27" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S27" t="n">
         <v>29</v>
       </c>
       <c r="T27" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U27" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V27" t="n">
         <v>14.7</v>
       </c>
       <c r="W27" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X27" t="n">
         <v>4.2</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Z27" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB27" t="n">
         <v>100.2</v>
@@ -5294,7 +5361,7 @@
         <v>-4.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5315,19 +5382,19 @@
         <v>8</v>
       </c>
       <c r="AK27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL27" t="n">
         <v>11</v>
       </c>
       <c r="AM27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP27" t="n">
         <v>11</v>
@@ -5351,19 +5418,19 @@
         <v>15</v>
       </c>
       <c r="AW27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY27" t="n">
         <v>27</v>
       </c>
       <c r="AZ27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BB27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-12-2012-13</t>
+          <t>2013-04-12</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F28" t="n">
         <v>21</v>
       </c>
       <c r="G28" t="n">
-        <v>0.734</v>
+        <v>0.731</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
@@ -5416,13 +5483,13 @@
         <v>39.2</v>
       </c>
       <c r="J28" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.484</v>
+        <v>0.483</v>
       </c>
       <c r="L28" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
         <v>21.6</v>
@@ -5437,13 +5504,13 @@
         <v>21.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.791</v>
+        <v>0.79</v>
       </c>
       <c r="R28" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T28" t="n">
         <v>41.3</v>
@@ -5458,7 +5525,7 @@
         <v>8.4</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
         <v>4.9</v>
@@ -5470,13 +5537,13 @@
         <v>19.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.3</v>
+        <v>103.2</v>
       </c>
       <c r="AC28" t="n">
         <v>7</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5488,7 +5555,7 @@
         <v>3</v>
       </c>
       <c r="AH28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI28" t="n">
         <v>2</v>
@@ -5512,7 +5579,7 @@
         <v>15</v>
       </c>
       <c r="AP28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
         <v>3</v>
@@ -5521,25 +5588,25 @@
         <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AW28" t="n">
         <v>5</v>
       </c>
       <c r="AX28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-12-2012-13</t>
+          <t>2013-04-12</t>
         </is>
       </c>
     </row>
@@ -5580,25 +5647,25 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E29" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F29" t="n">
         <v>48</v>
       </c>
       <c r="G29" t="n">
-        <v>0.392</v>
+        <v>0.385</v>
       </c>
       <c r="H29" t="n">
         <v>48.8</v>
       </c>
       <c r="I29" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J29" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K29" t="n">
         <v>0.444</v>
@@ -5607,16 +5674,16 @@
         <v>6.9</v>
       </c>
       <c r="M29" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="N29" t="n">
         <v>0.339</v>
       </c>
       <c r="O29" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P29" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="Q29" t="n">
         <v>0.787</v>
@@ -5628,7 +5695,7 @@
         <v>29.3</v>
       </c>
       <c r="T29" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="U29" t="n">
         <v>21.5</v>
@@ -5640,13 +5707,13 @@
         <v>7.3</v>
       </c>
       <c r="X29" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y29" t="n">
         <v>4.8</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA29" t="n">
         <v>20.1</v>
@@ -5655,10 +5722,10 @@
         <v>96.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.1</v>
+        <v>-2.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
@@ -5673,10 +5740,10 @@
         <v>2</v>
       </c>
       <c r="AI29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK29" t="n">
         <v>21</v>
@@ -5685,7 +5752,7 @@
         <v>15</v>
       </c>
       <c r="AM29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN29" t="n">
         <v>26</v>
@@ -5709,7 +5776,7 @@
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV29" t="n">
         <v>3</v>
@@ -5718,16 +5785,16 @@
         <v>19</v>
       </c>
       <c r="AX29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB29" t="n">
         <v>16</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-12-2012-13</t>
+          <t>2013-04-12</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E30" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F30" t="n">
         <v>38</v>
       </c>
       <c r="G30" t="n">
-        <v>0.525</v>
+        <v>0.519</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
@@ -5780,37 +5847,37 @@
         <v>37.3</v>
       </c>
       <c r="J30" t="n">
-        <v>81.90000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L30" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M30" t="n">
         <v>17.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.367</v>
+        <v>0.365</v>
       </c>
       <c r="O30" t="n">
         <v>17.5</v>
       </c>
       <c r="P30" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R30" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S30" t="n">
         <v>29.9</v>
       </c>
       <c r="T30" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U30" t="n">
         <v>22.8</v>
@@ -5822,22 +5889,22 @@
         <v>8.4</v>
       </c>
       <c r="X30" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y30" t="n">
         <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA30" t="n">
         <v>20.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -5858,19 +5925,19 @@
         <v>13</v>
       </c>
       <c r="AJ30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK30" t="n">
         <v>12</v>
       </c>
       <c r="AL30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN30" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO30" t="n">
         <v>10</v>
@@ -5879,7 +5946,7 @@
         <v>10</v>
       </c>
       <c r="AQ30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
         <v>8</v>
@@ -5888,16 +5955,16 @@
         <v>23</v>
       </c>
       <c r="AT30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV30" t="n">
         <v>19</v>
       </c>
       <c r="AW30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX30" t="n">
         <v>5</v>
@@ -5906,7 +5973,7 @@
         <v>23</v>
       </c>
       <c r="AZ30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-12-2012-13</t>
+          <t>2013-04-12</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E31" t="n">
         <v>29</v>
       </c>
       <c r="F31" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G31" t="n">
-        <v>0.363</v>
+        <v>0.367</v>
       </c>
       <c r="H31" t="n">
         <v>48.4</v>
@@ -5974,22 +6041,22 @@
         <v>18.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.364</v>
+        <v>0.366</v>
       </c>
       <c r="O31" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="P31" t="n">
         <v>21.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.732</v>
+        <v>0.733</v>
       </c>
       <c r="R31" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S31" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T31" t="n">
         <v>43.2</v>
@@ -6004,22 +6071,22 @@
         <v>7.3</v>
       </c>
       <c r="X31" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y31" t="n">
         <v>4.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>93.09999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>-2.5</v>
+        <v>-2.4</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -6040,19 +6107,19 @@
         <v>28</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK31" t="n">
         <v>28</v>
       </c>
       <c r="AL31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM31" t="n">
         <v>20</v>
       </c>
       <c r="AN31" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO31" t="n">
         <v>24</v>
@@ -6076,19 +6143,19 @@
         <v>19</v>
       </c>
       <c r="AV31" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AW31" t="n">
         <v>20</v>
       </c>
       <c r="AX31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA31" t="n">
         <v>23</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-12-2012-13</t>
+          <t>2013-04-12</t>
         </is>
       </c>
     </row>
